--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-14_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-14_beg.xlsx
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  "Until an effective cure is found, the patient's life is under serious threat." That's how we see it.
+    <t xml:space="preserve">[name="Kal'tsit"]  'Until an effective cure is found, the patient's life is under serious threat.' That's how we see it.
 </t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  "The disease is untreatable." 
+    <t xml:space="preserve">[name="Kal'tsit"]  'The disease is untreatable.' 
 </t>
   </si>
   <si>
